--- a/Literacy-rate_2021-1.xlsx
+++ b/Literacy-rate_2021-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef-my.sharepoint.com/personal/smizunoya_unicef_org/Documents/Education teamsite/Data.unicef.org update/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snigdhaghoshdastidar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{666D32D7-7F65-465F-AA0D-7CAC2A0C0013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0C44697-92EB-4DCE-A85D-25CB2114DB35}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3404F54E-E7E3-4342-9D70-EED9E090ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1605" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="500" windowWidth="22740" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="3" r:id="rId1"/>
@@ -1538,10 +1538,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Economies are currently divided into four income groupings: low, lower-middle, upper-middle, and high. Income is measured using gross national income (GNI) per capita, in U.S. dollars, converted from local currency using the World Bank Atlas method (column E).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Methodology</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1572,6 +1568,9 @@
   <si>
     <t xml:space="preserve">UNESCO Institute for Statistics (UIS) data on literacy rate from past 2 years are used. For countries with multiple years of data, the most recent year was used. </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economies are currently divided into four income groupings: low, lower-middle, upper-middle, and high. Income is measured using gross national income (GNI) per capita, in U.S. dollars, converted from local currency using the World Bank Atlas method (column E).</t>
   </si>
 </sst>
 </file>
@@ -1580,10 +1579,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1591,21 +1590,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1648,7 +1647,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2038,7 +2037,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2051,7 +2050,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2061,7 +2060,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2089,16 +2088,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2118,15 +2126,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5618,38 +5617,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75B40D3-8E62-4A77-8F94-57096F2B0F7C}">
   <dimension ref="A4:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.81640625" style="2"/>
+    <col min="1" max="1" width="28.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="19">
       <c r="B4" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="5" t="s">
         <v>448</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16">
       <c r="A8" s="7" t="s">
         <v>449</v>
       </c>
@@ -5657,47 +5656,47 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="10" customFormat="1">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A11" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" s="24"/>
+    </row>
+    <row r="12" spans="1:2" s="10" customFormat="1">
+      <c r="A12" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="B11" s="24"/>
-    </row>
-    <row r="12" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+      <c r="B12" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:2" s="10" customFormat="1" ht="32">
+      <c r="A13" s="25" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>489</v>
-      </c>
       <c r="B13" s="26" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="10" customFormat="1">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="10" customFormat="1">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:2" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A16" s="5" t="s">
         <v>450</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="10" customFormat="1" ht="32">
       <c r="A17" s="11" t="s">
         <v>451</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="10" customFormat="1" ht="32">
       <c r="A18" s="11" t="s">
         <v>453</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A20" s="14" t="s">
         <v>455</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A21" s="14" t="s">
         <v>263</v>
       </c>
@@ -5729,11 +5728,11 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="10" customFormat="1">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
     </row>
-    <row r="23" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A23" s="14" t="s">
         <v>456</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A24" s="16" t="s">
         <v>458</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A25" s="16" t="s">
         <v>460</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A26" s="16" t="s">
         <v>462</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A27" s="16" t="s">
         <v>464</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A28" s="16" t="s">
         <v>466</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A29" s="16" t="s">
         <v>468</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A30" s="16" t="s">
         <v>470</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A31" s="16" t="s">
         <v>472</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A32" s="16" t="s">
         <v>474</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" s="10" customFormat="1" ht="16">
       <c r="A33" s="16" t="s">
         <v>475</v>
       </c>
@@ -5821,53 +5820,53 @@
         <v>476</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" s="10" customFormat="1" ht="32">
       <c r="A34" s="21" t="s">
         <v>484</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="10" customFormat="1">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" s="10" customFormat="1">
       <c r="A36" s="20" t="s">
         <v>477</v>
       </c>
       <c r="B36" s="19"/>
     </row>
-    <row r="37" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" s="10" customFormat="1">
       <c r="A37" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B37" s="19"/>
     </row>
-    <row r="38" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" s="10" customFormat="1">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
     </row>
-    <row r="39" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" s="10" customFormat="1">
       <c r="A39" s="20" t="s">
         <v>478</v>
       </c>
       <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" s="10" customFormat="1">
       <c r="A40" s="19" t="s">
         <v>479</v>
       </c>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" s="10" customFormat="1">
       <c r="A41" s="9"/>
     </row>
-    <row r="42" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" s="10" customFormat="1">
       <c r="A42" s="9"/>
     </row>
-    <row r="43" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" s="10" customFormat="1">
       <c r="A43" s="9"/>
     </row>
   </sheetData>
@@ -5882,63 +5881,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="28"/>
-    <col min="2" max="2" width="40.6328125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="28"/>
+    <col min="2" max="2" width="40.6640625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="28" customWidth="1"/>
     <col min="5" max="5" width="20" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="28" customWidth="1"/>
     <col min="9" max="9" width="12" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="7.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="28"/>
+    <col min="10" max="10" width="11.1640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:11" s="47" customFormat="1">
+      <c r="A1" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="J1" s="57"/>
-    </row>
-    <row r="2" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59" t="s">
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:11" s="47" customFormat="1" ht="16">
+      <c r="A2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="49" t="s">
         <v>266</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" s="30" t="s">
         <v>174</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>93</v>
       </c>
       <c r="F3" s="1">
-        <v>65.420547485351563</v>
+        <v>65.420547485351562</v>
       </c>
       <c r="G3" s="1">
         <v>56.254749298095703</v>
@@ -5985,7 +5984,7 @@
       </c>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" s="30" t="s">
         <v>175</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>99.629997253417969</v>
       </c>
       <c r="H4" s="1">
-        <v>99.050003051757813</v>
+        <v>99.050003051757812</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>264</v>
@@ -6017,7 +6016,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="30" t="s">
         <v>192</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" s="30" t="s">
         <v>41</v>
       </c>
@@ -6073,7 +6072,7 @@
       </c>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" s="34" t="s">
         <v>351</v>
       </c>
@@ -6096,7 +6095,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="34" t="s">
         <v>352</v>
       </c>
@@ -6119,7 +6118,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="30" t="s">
         <v>42</v>
       </c>
@@ -6143,7 +6142,7 @@
       </c>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" s="30" t="s">
         <v>176</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" s="34" t="s">
         <v>353</v>
       </c>
@@ -6198,7 +6197,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="30" t="s">
         <v>43</v>
       </c>
@@ -6222,7 +6221,7 @@
       </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" s="30" t="s">
         <v>44</v>
       </c>
@@ -6246,7 +6245,7 @@
       </c>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="34" t="s">
         <v>354</v>
       </c>
@@ -6269,7 +6268,7 @@
       <c r="I14" s="36"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
@@ -6293,7 +6292,7 @@
       </c>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="30" t="s">
         <v>180</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" s="30" t="s">
         <v>179</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" s="34" t="s">
         <v>355</v>
       </c>
@@ -6380,7 +6379,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19" s="30" t="s">
         <v>181</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20" s="30" t="s">
         <v>45</v>
       </c>
@@ -6436,7 +6435,7 @@
       </c>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" s="34" t="s">
         <v>356</v>
       </c>
@@ -6459,7 +6458,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22" s="30" t="s">
         <v>177</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>60.948078155517578</v>
       </c>
       <c r="G22" s="1">
-        <v>51.943618774414063</v>
+        <v>51.943618774414062</v>
       </c>
       <c r="H22" s="1">
         <v>69.761177062988281</v>
@@ -6491,7 +6490,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" s="34" t="s">
         <v>357</v>
       </c>
@@ -6514,7 +6513,7 @@
       <c r="I23" s="36"/>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" s="34" t="s">
         <v>358</v>
       </c>
@@ -6537,7 +6536,7 @@
       <c r="I24" s="36"/>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25" s="34" t="s">
         <v>359</v>
       </c>
@@ -6560,7 +6559,7 @@
       <c r="I25" s="36"/>
       <c r="J25" s="37"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10">
       <c r="A26" s="34" t="s">
         <v>360</v>
       </c>
@@ -6583,7 +6582,7 @@
       <c r="I26" s="36"/>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10">
       <c r="A27" s="30" t="s">
         <v>182</v>
       </c>
@@ -6603,7 +6602,7 @@
         <v>99.204170227050781</v>
       </c>
       <c r="G27" s="1">
-        <v>99.431533813476563</v>
+        <v>99.431533813476562</v>
       </c>
       <c r="H27" s="1">
         <v>98.98358154296875</v>
@@ -6615,7 +6614,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10">
       <c r="A28" s="30" t="s">
         <v>81</v>
       </c>
@@ -6639,7 +6638,7 @@
       </c>
       <c r="J28" s="31"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10">
       <c r="A29" s="30" t="s">
         <v>183</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>92</v>
       </c>
       <c r="F29" s="1">
-        <v>99.708938598632813</v>
+        <v>99.708938598632812</v>
       </c>
       <c r="G29" s="1">
         <v>99.789657592773438</v>
@@ -6671,7 +6670,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30" s="34" t="s">
         <v>361</v>
       </c>
@@ -6694,7 +6693,7 @@
       <c r="I30" s="36"/>
       <c r="J30" s="37"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10">
       <c r="A31" s="30" t="s">
         <v>178</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>58.290000915527344</v>
       </c>
       <c r="G31" s="1">
-        <v>54.669998168945313</v>
+        <v>54.669998168945312</v>
       </c>
       <c r="H31" s="1">
         <v>61.790000915527344</v>
@@ -6726,7 +6725,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10">
       <c r="A32" s="34" t="s">
         <v>362</v>
       </c>
@@ -6749,7 +6748,7 @@
       <c r="I32" s="36"/>
       <c r="J32" s="37"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="34" t="s">
         <v>363</v>
       </c>
@@ -6772,7 +6771,7 @@
       <c r="I33" s="36"/>
       <c r="J33" s="37"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" s="34" t="s">
         <v>364</v>
       </c>
@@ -6795,7 +6794,7 @@
       <c r="I34" s="36"/>
       <c r="J34" s="37"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" s="30" t="s">
         <v>187</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" s="30" t="s">
         <v>47</v>
       </c>
@@ -6851,7 +6850,7 @@
       </c>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" s="30" t="s">
         <v>184</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" s="34" t="s">
         <v>365</v>
       </c>
@@ -6906,7 +6905,7 @@
       <c r="I38" s="36"/>
       <c r="J38" s="37"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" s="34" t="s">
         <v>366</v>
       </c>
@@ -6929,7 +6928,7 @@
       <c r="I39" s="36"/>
       <c r="J39" s="37"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40" s="30" t="s">
         <v>185</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" s="30" t="s">
         <v>189</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" s="30" t="s">
         <v>190</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" s="30" t="s">
         <v>188</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" s="30" t="s">
         <v>49</v>
       </c>
@@ -7081,7 +7080,7 @@
       </c>
       <c r="J44" s="31"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45" s="30" t="s">
         <v>191</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" s="30" t="s">
         <v>186</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>58.420150756835938</v>
       </c>
       <c r="G46" s="1">
-        <v>53.025100708007813</v>
+        <v>53.025100708007812</v>
       </c>
       <c r="H46" s="1">
         <v>63.844921112060547</v>
@@ -7145,7 +7144,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" s="34" t="s">
         <v>367</v>
       </c>
@@ -7168,7 +7167,7 @@
       <c r="I47" s="36"/>
       <c r="J47" s="37"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" s="34" t="s">
         <v>368</v>
       </c>
@@ -7191,7 +7190,7 @@
       <c r="I48" s="36"/>
       <c r="J48" s="37"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49" s="34" t="s">
         <v>369</v>
       </c>
@@ -7214,7 +7213,7 @@
       <c r="I49" s="36"/>
       <c r="J49" s="37"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50" s="34" t="s">
         <v>370</v>
       </c>
@@ -7237,7 +7236,7 @@
       <c r="I50" s="36"/>
       <c r="J50" s="37"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10">
       <c r="A51" s="34" t="s">
         <v>371</v>
       </c>
@@ -7260,7 +7259,7 @@
       <c r="I51" s="36"/>
       <c r="J51" s="37"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10">
       <c r="A52" s="34" t="s">
         <v>372</v>
       </c>
@@ -7283,7 +7282,7 @@
       <c r="I52" s="36"/>
       <c r="J52" s="37"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10">
       <c r="A53" s="30" t="s">
         <v>53</v>
       </c>
@@ -7307,7 +7306,7 @@
       </c>
       <c r="J53" s="31"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10">
       <c r="A54" s="30" t="s">
         <v>51</v>
       </c>
@@ -7331,7 +7330,7 @@
       </c>
       <c r="J54" s="31"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55" s="30" t="s">
         <v>52</v>
       </c>
@@ -7355,7 +7354,7 @@
       </c>
       <c r="J55" s="31"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56" s="34" t="s">
         <v>373</v>
       </c>
@@ -7378,7 +7377,7 @@
       <c r="I56" s="36"/>
       <c r="J56" s="37"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10">
       <c r="A57" s="34" t="s">
         <v>374</v>
       </c>
@@ -7401,7 +7400,7 @@
       <c r="I57" s="36"/>
       <c r="J57" s="37"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10">
       <c r="A58" s="34" t="s">
         <v>375</v>
       </c>
@@ -7424,7 +7423,7 @@
       <c r="I58" s="36"/>
       <c r="J58" s="37"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10">
       <c r="A59" s="30" t="s">
         <v>235</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10">
       <c r="A60" s="34" t="s">
         <v>376</v>
       </c>
@@ -7479,7 +7478,7 @@
       <c r="I60" s="36"/>
       <c r="J60" s="37"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10">
       <c r="A61" s="30" t="s">
         <v>193</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>92.714027404785156</v>
       </c>
       <c r="H61" s="1">
-        <v>93.818679809570313</v>
+        <v>93.818679809570312</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>264</v>
@@ -7511,7 +7510,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10">
       <c r="A62" s="34" t="s">
         <v>377</v>
       </c>
@@ -7534,7 +7533,7 @@
       <c r="I62" s="36"/>
       <c r="J62" s="37"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10">
       <c r="A63" s="30" t="s">
         <v>240</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10">
       <c r="A64" s="34" t="s">
         <v>378</v>
       </c>
@@ -7589,7 +7588,7 @@
       <c r="I64" s="36"/>
       <c r="J64" s="37"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10">
       <c r="A65" s="34" t="s">
         <v>379</v>
       </c>
@@ -7612,7 +7611,7 @@
       <c r="I65" s="36"/>
       <c r="J65" s="37"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10">
       <c r="A66" s="30" t="s">
         <v>54</v>
       </c>
@@ -7636,7 +7635,7 @@
       </c>
       <c r="J66" s="31"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10">
       <c r="A67" s="30" t="s">
         <v>55</v>
       </c>
@@ -7660,7 +7659,7 @@
       </c>
       <c r="J67" s="31"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10">
       <c r="A68" s="30" t="s">
         <v>195</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10">
       <c r="A69" s="34" t="s">
         <v>380</v>
       </c>
@@ -7715,7 +7714,7 @@
       <c r="I69" s="36"/>
       <c r="J69" s="37"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="A70" s="34" t="s">
         <v>381</v>
       </c>
@@ -7738,7 +7737,7 @@
       <c r="I70" s="36"/>
       <c r="J70" s="37"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10">
       <c r="A71" s="30" t="s">
         <v>50</v>
       </c>
@@ -7762,7 +7761,7 @@
       </c>
       <c r="J71" s="31"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10">
       <c r="A72" s="30" t="s">
         <v>196</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>92.208549499511719</v>
       </c>
       <c r="H72" s="1">
-        <v>92.761001586914063</v>
+        <v>92.761001586914062</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>264</v>
@@ -7794,7 +7793,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10">
       <c r="A73" s="30" t="s">
         <v>197</v>
       </c>
@@ -7826,7 +7825,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10">
       <c r="A74" s="34" t="s">
         <v>382</v>
       </c>
@@ -7849,7 +7848,7 @@
       <c r="I74" s="36"/>
       <c r="J74" s="37"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10">
       <c r="A75" s="34" t="s">
         <v>383</v>
       </c>
@@ -7872,7 +7871,7 @@
       <c r="I75" s="36"/>
       <c r="J75" s="37"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10">
       <c r="A76" s="34" t="s">
         <v>384</v>
       </c>
@@ -7895,7 +7894,7 @@
       <c r="I76" s="36"/>
       <c r="J76" s="37"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10">
       <c r="A77" s="34" t="s">
         <v>385</v>
       </c>
@@ -7918,7 +7917,7 @@
       <c r="I77" s="36"/>
       <c r="J77" s="37"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10">
       <c r="A78" s="34" t="s">
         <v>386</v>
       </c>
@@ -7941,7 +7940,7 @@
       <c r="I78" s="36"/>
       <c r="J78" s="37"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10">
       <c r="A79" s="34" t="s">
         <v>387</v>
       </c>
@@ -7964,7 +7963,7 @@
       <c r="I79" s="36"/>
       <c r="J79" s="37"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10">
       <c r="A80" s="30" t="s">
         <v>80</v>
       </c>
@@ -7988,7 +7987,7 @@
       </c>
       <c r="J80" s="31"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10">
       <c r="A81" s="30" t="s">
         <v>198</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10">
       <c r="A82" s="34" t="s">
         <v>388</v>
       </c>
@@ -8043,7 +8042,7 @@
       <c r="I82" s="36"/>
       <c r="J82" s="37"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10">
       <c r="A83" s="30" t="s">
         <v>59</v>
       </c>
@@ -8067,7 +8066,7 @@
       </c>
       <c r="J83" s="31"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10">
       <c r="A84" s="30" t="s">
         <v>200</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10">
       <c r="A85" s="30" t="s">
         <v>199</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>99.696250915527344</v>
       </c>
       <c r="H85" s="1">
-        <v>99.717483520507813</v>
+        <v>99.717483520507812</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>264</v>
@@ -8131,7 +8130,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10">
       <c r="A86" s="34" t="s">
         <v>389</v>
       </c>
@@ -8154,7 +8153,7 @@
       <c r="I86" s="36"/>
       <c r="J86" s="37"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10">
       <c r="A87" s="34" t="s">
         <v>390</v>
       </c>
@@ -8177,7 +8176,7 @@
       <c r="I87" s="36"/>
       <c r="J87" s="37"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10">
       <c r="A88" s="30" t="s">
         <v>58</v>
       </c>
@@ -8201,7 +8200,7 @@
       </c>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10">
       <c r="A89" s="34" t="s">
         <v>391</v>
       </c>
@@ -8224,7 +8223,7 @@
       <c r="I89" s="36"/>
       <c r="J89" s="37"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10">
       <c r="A90" s="30" t="s">
         <v>201</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>99.949996948242188</v>
       </c>
       <c r="H90" s="1">
-        <v>99.919998168945313</v>
+        <v>99.919998168945312</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>264</v>
@@ -8256,7 +8255,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10">
       <c r="A91" s="34" t="s">
         <v>392</v>
       </c>
@@ -8279,7 +8278,7 @@
       <c r="I91" s="36"/>
       <c r="J91" s="37"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10">
       <c r="A92" s="30" t="s">
         <v>60</v>
       </c>
@@ -8303,7 +8302,7 @@
       </c>
       <c r="J92" s="31"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10">
       <c r="A93" s="30" t="s">
         <v>202</v>
       </c>
@@ -8323,10 +8322,10 @@
         <v>99.343742370605469</v>
       </c>
       <c r="G93" s="1">
-        <v>99.493911743164063</v>
+        <v>99.493911743164062</v>
       </c>
       <c r="H93" s="1">
-        <v>99.196121215820313</v>
+        <v>99.196121215820312</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>264</v>
@@ -8335,7 +8334,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10">
       <c r="A94" s="30" t="s">
         <v>203</v>
       </c>
@@ -8355,10 +8354,10 @@
         <v>99.897361755371094</v>
       </c>
       <c r="G94" s="1">
-        <v>99.850906372070313</v>
+        <v>99.850906372070312</v>
       </c>
       <c r="H94" s="1">
-        <v>99.940139770507813</v>
+        <v>99.940139770507812</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>264</v>
@@ -8367,7 +8366,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10">
       <c r="A95" s="30" t="s">
         <v>204</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10">
       <c r="A96" s="30" t="s">
         <v>61</v>
       </c>
@@ -8423,7 +8422,7 @@
       </c>
       <c r="J96" s="31"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10">
       <c r="A97" s="30" t="s">
         <v>206</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10">
       <c r="A98" s="30" t="s">
         <v>205</v>
       </c>
@@ -8487,7 +8486,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10">
       <c r="A99" s="34" t="s">
         <v>393</v>
       </c>
@@ -8510,7 +8509,7 @@
       <c r="I99" s="36"/>
       <c r="J99" s="37"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10">
       <c r="A100" s="30" t="s">
         <v>209</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>99.819999694824219</v>
       </c>
       <c r="G100" s="1">
-        <v>99.860000610351563</v>
+        <v>99.860000610351562</v>
       </c>
       <c r="H100" s="1">
         <v>99.779998779296875</v>
@@ -8542,7 +8541,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10">
       <c r="A101" s="30" t="s">
         <v>207</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10">
       <c r="A102" s="34" t="s">
         <v>394</v>
       </c>
@@ -8597,7 +8596,7 @@
       <c r="I102" s="36"/>
       <c r="J102" s="37"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10">
       <c r="A103" s="34" t="s">
         <v>395</v>
       </c>
@@ -8620,7 +8619,7 @@
       <c r="I103" s="36"/>
       <c r="J103" s="37"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10">
       <c r="A104" s="34" t="s">
         <v>396</v>
       </c>
@@ -8643,7 +8642,7 @@
       <c r="I104" s="36"/>
       <c r="J104" s="37"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10">
       <c r="A105" s="30" t="s">
         <v>64</v>
       </c>
@@ -8667,7 +8666,7 @@
       </c>
       <c r="J105" s="31"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10">
       <c r="A106" s="34" t="s">
         <v>397</v>
       </c>
@@ -8690,7 +8689,7 @@
       <c r="I106" s="36"/>
       <c r="J106" s="37"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10">
       <c r="A107" s="30" t="s">
         <v>65</v>
       </c>
@@ -8714,7 +8713,7 @@
       </c>
       <c r="J107" s="31"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10">
       <c r="A108" s="30" t="s">
         <v>211</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10">
       <c r="A109" s="34" t="s">
         <v>398</v>
       </c>
@@ -8769,7 +8768,7 @@
       <c r="I109" s="36"/>
       <c r="J109" s="37"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10">
       <c r="A110" s="30" t="s">
         <v>218</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10">
       <c r="A111" s="34" t="s">
         <v>399</v>
       </c>
@@ -8824,7 +8823,7 @@
       <c r="I111" s="36"/>
       <c r="J111" s="37"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10">
       <c r="A112" s="30" t="s">
         <v>213</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10">
       <c r="A113" s="30" t="s">
         <v>214</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10">
       <c r="A114" s="34" t="s">
         <v>400</v>
       </c>
@@ -8911,7 +8910,7 @@
       <c r="I114" s="36"/>
       <c r="J114" s="37"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10">
       <c r="A115" s="34" t="s">
         <v>401</v>
       </c>
@@ -8934,7 +8933,7 @@
       <c r="I115" s="36"/>
       <c r="J115" s="37"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10">
       <c r="A116" s="30" t="s">
         <v>217</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10">
       <c r="A117" s="30" t="s">
         <v>212</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10">
       <c r="A118" s="30" t="s">
         <v>56</v>
       </c>
@@ -9022,7 +9021,7 @@
       </c>
       <c r="J118" s="31"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10">
       <c r="A119" s="30" t="s">
         <v>66</v>
       </c>
@@ -9046,7 +9045,7 @@
       </c>
       <c r="J119" s="31"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10">
       <c r="A120" s="30" t="s">
         <v>216</v>
       </c>
@@ -9078,7 +9077,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10">
       <c r="A121" s="30" t="s">
         <v>215</v>
       </c>
@@ -9095,7 +9094,7 @@
         <v>91</v>
       </c>
       <c r="F121" s="1">
-        <v>99.110000610351563</v>
+        <v>99.110000610351562</v>
       </c>
       <c r="G121" s="1">
         <v>98.970001220703125</v>
@@ -9110,7 +9109,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10">
       <c r="A122" s="30" t="s">
         <v>67</v>
       </c>
@@ -9134,7 +9133,7 @@
       </c>
       <c r="J122" s="31"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10">
       <c r="A123" s="30" t="s">
         <v>210</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10">
       <c r="A124" s="34" t="s">
         <v>402</v>
       </c>
@@ -9189,7 +9188,7 @@
       <c r="I124" s="36"/>
       <c r="J124" s="37"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10">
       <c r="A125" s="34" t="s">
         <v>403</v>
       </c>
@@ -9212,7 +9211,7 @@
       <c r="I125" s="36"/>
       <c r="J125" s="37"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10">
       <c r="A126" s="30" t="s">
         <v>219</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>95.164901733398438</v>
       </c>
       <c r="G126" s="1">
-        <v>96.198440551757813</v>
+        <v>96.198440551757812</v>
       </c>
       <c r="H126" s="1">
         <v>94.109367370605469</v>
@@ -9244,7 +9243,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10">
       <c r="A127" s="30" t="s">
         <v>71</v>
       </c>
@@ -9268,7 +9267,7 @@
       </c>
       <c r="J127" s="31"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10">
       <c r="A128" s="30" t="s">
         <v>222</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10">
       <c r="A129" s="30" t="s">
         <v>69</v>
       </c>
@@ -9324,7 +9323,7 @@
       </c>
       <c r="J129" s="31"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10">
       <c r="A130" s="30" t="s">
         <v>72</v>
       </c>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="J130" s="31"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10">
       <c r="A131" s="34" t="s">
         <v>404</v>
       </c>
@@ -9371,7 +9370,7 @@
       <c r="I131" s="36"/>
       <c r="J131" s="37"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10">
       <c r="A132" s="30" t="s">
         <v>220</v>
       </c>
@@ -9403,7 +9402,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10">
       <c r="A133" s="30" t="s">
         <v>221</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>68.262626647949219</v>
       </c>
       <c r="H133" s="1">
-        <v>81.580642700195313</v>
+        <v>81.580642700195312</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>264</v>
@@ -9435,7 +9434,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10">
       <c r="A134" s="30" t="s">
         <v>68</v>
       </c>
@@ -9459,7 +9458,7 @@
       </c>
       <c r="J134" s="31"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10">
       <c r="A135" s="34" t="s">
         <v>422</v>
       </c>
@@ -9482,7 +9481,7 @@
       <c r="I135" s="36"/>
       <c r="J135" s="37"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10">
       <c r="A136" s="30" t="s">
         <v>70</v>
       </c>
@@ -9506,7 +9505,7 @@
       </c>
       <c r="J136" s="31"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10">
       <c r="A137" s="30" t="s">
         <v>223</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10">
       <c r="A138" s="34" t="s">
         <v>405</v>
       </c>
@@ -9561,7 +9560,7 @@
       <c r="I138" s="36"/>
       <c r="J138" s="37"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10">
       <c r="A139" s="34" t="s">
         <v>406</v>
       </c>
@@ -9584,7 +9583,7 @@
       <c r="I139" s="36"/>
       <c r="J139" s="37"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10">
       <c r="A140" s="30" t="s">
         <v>224</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10">
       <c r="A141" s="34" t="s">
         <v>407</v>
       </c>
@@ -9639,7 +9638,7 @@
       <c r="I141" s="36"/>
       <c r="J141" s="37"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10">
       <c r="A142" s="30" t="s">
         <v>227</v>
       </c>
@@ -9671,7 +9670,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10">
       <c r="A143" s="30" t="s">
         <v>225</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>92</v>
       </c>
       <c r="F143" s="1">
-        <v>99.023757934570313</v>
+        <v>99.023757934570312</v>
       </c>
       <c r="G143" s="1">
         <v>98.966972351074219</v>
@@ -9703,7 +9702,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10">
       <c r="A144" s="34" t="s">
         <v>408</v>
       </c>
@@ -9726,7 +9725,7 @@
       <c r="I144" s="36"/>
       <c r="J144" s="37"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10">
       <c r="A145" s="34" t="s">
         <v>409</v>
       </c>
@@ -9749,7 +9748,7 @@
       <c r="I145" s="36"/>
       <c r="J145" s="37"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10">
       <c r="A146" s="30" t="s">
         <v>226</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10">
       <c r="A147" s="34" t="s">
         <v>410</v>
       </c>
@@ -9804,7 +9803,7 @@
       <c r="I147" s="36"/>
       <c r="J147" s="37"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10">
       <c r="A148" s="34" t="s">
         <v>411</v>
       </c>
@@ -9827,7 +9826,7 @@
       <c r="I148" s="36"/>
       <c r="J148" s="37"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10">
       <c r="A149" s="34" t="s">
         <v>412</v>
       </c>
@@ -9850,7 +9849,7 @@
       <c r="I149" s="36"/>
       <c r="J149" s="37"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10">
       <c r="A150" s="30" t="s">
         <v>229</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10">
       <c r="A151" s="30" t="s">
         <v>230</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10">
       <c r="A152" s="30" t="s">
         <v>231</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10">
       <c r="A153" s="30" t="s">
         <v>62</v>
       </c>
@@ -9970,7 +9969,7 @@
       </c>
       <c r="J153" s="31"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10">
       <c r="A154" s="30" t="s">
         <v>63</v>
       </c>
@@ -9994,7 +9993,7 @@
       </c>
       <c r="J154" s="31"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10">
       <c r="A155" s="34" t="s">
         <v>413</v>
       </c>
@@ -10017,7 +10016,7 @@
       <c r="I155" s="36"/>
       <c r="J155" s="37"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10">
       <c r="A156" s="30" t="s">
         <v>250</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>99.435752868652344</v>
       </c>
       <c r="H156" s="1">
-        <v>98.841506958007813</v>
+        <v>98.841506958007812</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>264</v>
@@ -10049,7 +10048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10">
       <c r="A157" s="30" t="s">
         <v>236</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10">
       <c r="A158" s="30" t="s">
         <v>238</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>93</v>
       </c>
       <c r="F158" s="1">
-        <v>97.782546997070313</v>
+        <v>97.782546997070312</v>
       </c>
       <c r="G158" s="1">
         <v>97.854179382324219</v>
@@ -10113,7 +10112,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10">
       <c r="A159" s="34" t="s">
         <v>414</v>
       </c>
@@ -10136,7 +10135,7 @@
       <c r="I159" s="36"/>
       <c r="J159" s="37"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10">
       <c r="A160" s="34" t="s">
         <v>415</v>
       </c>
@@ -10159,7 +10158,7 @@
       <c r="I160" s="36"/>
       <c r="J160" s="37"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10">
       <c r="A161" s="34" t="s">
         <v>416</v>
       </c>
@@ -10182,7 +10181,7 @@
       <c r="I161" s="36"/>
       <c r="J161" s="37"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10">
       <c r="A162" s="30" t="s">
         <v>241</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10">
       <c r="A163" s="30" t="s">
         <v>234</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10">
       <c r="A164" s="30" t="s">
         <v>233</v>
       </c>
@@ -10278,7 +10277,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10">
       <c r="A165" s="30" t="s">
         <v>74</v>
       </c>
@@ -10302,7 +10301,7 @@
       </c>
       <c r="J165" s="31"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10">
       <c r="A166" s="34" t="s">
         <v>417</v>
       </c>
@@ -10325,7 +10324,7 @@
       <c r="I166" s="36"/>
       <c r="J166" s="37"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10">
       <c r="A167" s="30" t="s">
         <v>73</v>
       </c>
@@ -10349,7 +10348,7 @@
       </c>
       <c r="J167" s="31"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10">
       <c r="A168" s="34" t="s">
         <v>418</v>
       </c>
@@ -10372,7 +10371,7 @@
       <c r="I168" s="36"/>
       <c r="J168" s="37"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10">
       <c r="A169" s="34" t="s">
         <v>419</v>
       </c>
@@ -10395,7 +10394,7 @@
       <c r="I169" s="36"/>
       <c r="J169" s="37"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10">
       <c r="A170" s="30" t="s">
         <v>237</v>
       </c>
@@ -10427,7 +10426,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10">
       <c r="A171" s="30" t="s">
         <v>194</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10">
       <c r="A172" s="30" t="s">
         <v>208</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>92</v>
       </c>
       <c r="F172" s="1">
-        <v>98.781936645507813</v>
+        <v>98.781936645507812</v>
       </c>
       <c r="G172" s="1">
         <v>99.044593811035156</v>
@@ -10491,7 +10490,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10">
       <c r="A173" s="30" t="s">
         <v>228</v>
       </c>
@@ -10523,7 +10522,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10">
       <c r="A174" s="30" t="s">
         <v>232</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10">
       <c r="A175" s="30" t="s">
         <v>239</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>98.39996337890625</v>
       </c>
       <c r="H175" s="1">
-        <v>98.875442504882813</v>
+        <v>98.875442504882812</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>264</v>
@@ -10587,7 +10586,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10">
       <c r="A176" s="30" t="s">
         <v>75</v>
       </c>
@@ -10611,7 +10610,7 @@
       </c>
       <c r="J176" s="31"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10">
       <c r="A177" s="30" t="s">
         <v>48</v>
       </c>
@@ -10635,7 +10634,7 @@
       </c>
       <c r="J177" s="31"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10">
       <c r="A178" s="34" t="s">
         <v>420</v>
       </c>
@@ -10658,7 +10657,7 @@
       <c r="I178" s="36"/>
       <c r="J178" s="37"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10">
       <c r="A179" s="34" t="s">
         <v>421</v>
       </c>
@@ -10681,7 +10680,7 @@
       <c r="I179" s="36"/>
       <c r="J179" s="37"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10">
       <c r="A180" s="30" t="s">
         <v>242</v>
       </c>
@@ -10713,7 +10712,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10">
       <c r="A181" s="30" t="s">
         <v>243</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10">
       <c r="A182" s="34" t="s">
         <v>423</v>
       </c>
@@ -10768,7 +10767,7 @@
       <c r="I182" s="36"/>
       <c r="J182" s="37"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10">
       <c r="A183" s="30" t="s">
         <v>77</v>
       </c>
@@ -10792,7 +10791,7 @@
       </c>
       <c r="J183" s="31"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10">
       <c r="A184" s="30" t="s">
         <v>244</v>
       </c>
@@ -10809,13 +10808,13 @@
         <v>92</v>
       </c>
       <c r="F184" s="1">
-        <v>99.441116333007813</v>
+        <v>99.441116333007812</v>
       </c>
       <c r="G184" s="1">
         <v>99.539779663085938</v>
       </c>
       <c r="H184" s="1">
-        <v>99.348709106445313</v>
+        <v>99.348709106445312</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>264</v>
@@ -10824,7 +10823,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10">
       <c r="A185" s="34" t="s">
         <v>424</v>
       </c>
@@ -10847,7 +10846,7 @@
       <c r="I185" s="36"/>
       <c r="J185" s="37"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10">
       <c r="A186" s="34" t="s">
         <v>425</v>
       </c>
@@ -10870,7 +10869,7 @@
       <c r="I186" s="36"/>
       <c r="J186" s="37"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10">
       <c r="A187" s="34" t="s">
         <v>426</v>
       </c>
@@ -10893,7 +10892,7 @@
       <c r="I187" s="36"/>
       <c r="J187" s="37"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10">
       <c r="A188" s="34" t="s">
         <v>427</v>
       </c>
@@ -10916,7 +10915,7 @@
       <c r="I188" s="36"/>
       <c r="J188" s="37"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10">
       <c r="A189" s="30" t="s">
         <v>76</v>
       </c>
@@ -10940,7 +10939,7 @@
       </c>
       <c r="J189" s="31"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10">
       <c r="A190" s="30" t="s">
         <v>78</v>
       </c>
@@ -10964,7 +10963,7 @@
       </c>
       <c r="J190" s="31"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10">
       <c r="A191" s="30" t="s">
         <v>245</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>89.396308898925781</v>
       </c>
       <c r="G191" s="1">
-        <v>89.950637817382813</v>
+        <v>89.950637817382812</v>
       </c>
       <c r="H191" s="1">
         <v>88.826896667480469</v>
@@ -10996,7 +10995,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10">
       <c r="A192" s="34" t="s">
         <v>428</v>
       </c>
@@ -11019,7 +11018,7 @@
       <c r="I192" s="36"/>
       <c r="J192" s="37"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10">
       <c r="A193" s="34" t="s">
         <v>429</v>
       </c>
@@ -11042,7 +11041,7 @@
       <c r="I193" s="36"/>
       <c r="J193" s="37"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10">
       <c r="A194" s="30" t="s">
         <v>57</v>
       </c>
@@ -11066,7 +11065,7 @@
       </c>
       <c r="J194" s="31"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10">
       <c r="A195" s="34" t="s">
         <v>430</v>
       </c>
@@ -11089,7 +11088,7 @@
       <c r="I195" s="36"/>
       <c r="J195" s="37"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10">
       <c r="A196" s="30" t="s">
         <v>79</v>
       </c>
@@ -11113,7 +11112,7 @@
       </c>
       <c r="J196" s="31"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10">
       <c r="A197" s="30" t="s">
         <v>246</v>
       </c>
@@ -11136,7 +11135,7 @@
         <v>99.165992736816406</v>
       </c>
       <c r="H197" s="1">
-        <v>98.604751586914063</v>
+        <v>98.604751586914062</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>264</v>
@@ -11145,7 +11144,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10">
       <c r="A198" s="30" t="s">
         <v>247</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10">
       <c r="A199" s="30" t="s">
         <v>249</v>
       </c>
@@ -11194,7 +11193,7 @@
         <v>93</v>
       </c>
       <c r="F199" s="1">
-        <v>96.282119750976563</v>
+        <v>96.282119750976562</v>
       </c>
       <c r="G199" s="1">
         <v>96.596611022949219</v>
@@ -11209,7 +11208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10">
       <c r="A200" s="34" t="s">
         <v>431</v>
       </c>
@@ -11232,7 +11231,7 @@
       <c r="I200" s="36"/>
       <c r="J200" s="37"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10">
       <c r="A201" s="30" t="s">
         <v>248</v>
       </c>
@@ -11249,7 +11248,7 @@
         <v>92</v>
       </c>
       <c r="F201" s="1">
-        <v>98.408096313476563</v>
+        <v>98.408096313476562</v>
       </c>
       <c r="G201" s="1">
         <v>98.353141784667969</v>
@@ -11264,7 +11263,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10">
       <c r="A202" s="34" t="s">
         <v>432</v>
       </c>
@@ -11287,7 +11286,7 @@
       <c r="I202" s="36"/>
       <c r="J202" s="37"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10">
       <c r="A203" s="30" t="s">
         <v>251</v>
       </c>
@@ -11304,10 +11303,10 @@
         <v>93</v>
       </c>
       <c r="F203" s="1">
-        <v>92.091567993164063</v>
+        <v>92.091567993164062</v>
       </c>
       <c r="G203" s="1">
-        <v>91.628189086914063</v>
+        <v>91.628189086914062</v>
       </c>
       <c r="H203" s="1">
         <v>92.559638977050781</v>
@@ -11319,7 +11318,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" ht="16" thickBot="1">
       <c r="A204" s="39" t="s">
         <v>433</v>
       </c>
@@ -11342,28 +11341,28 @@
       <c r="I204" s="41"/>
       <c r="J204" s="42"/>
     </row>
-    <row r="208" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B209" s="54" t="s">
-        <v>491</v>
-      </c>
-      <c r="C209" s="55"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="55"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" ht="16" thickBot="1"/>
+    <row r="209" spans="2:5">
+      <c r="B209" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="C209" s="58"/>
+      <c r="D209" s="58"/>
+      <c r="E209" s="58"/>
+    </row>
+    <row r="210" spans="2:5">
       <c r="B210" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="C210" s="64" t="s">
+      <c r="C210" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D210" s="64"/>
+      <c r="D210" s="54"/>
       <c r="E210" s="31">
         <v>98.693389892578097</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:5">
       <c r="B211" s="34" t="s">
         <v>435</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>99.305980000000005</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:5">
       <c r="B212" s="34" t="s">
         <v>437</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>99.756332397460938</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:5">
       <c r="B213" s="34" t="s">
         <v>438</v>
       </c>
@@ -11399,7 +11398,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:5">
       <c r="B214" s="34" t="s">
         <v>439</v>
       </c>
@@ -11411,7 +11410,7 @@
         <v>98.614891052246094</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:5">
       <c r="B215" s="34" t="s">
         <v>440</v>
       </c>
@@ -11423,7 +11422,7 @@
         <v>90.109611511230469</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:5">
       <c r="B216" s="34" t="s">
         <v>441</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:5">
       <c r="B217" s="34" t="s">
         <v>442</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>89.95697021484375</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:5">
       <c r="B218" s="34" t="s">
         <v>443</v>
       </c>
@@ -11459,7 +11458,7 @@
         <v>76.328102111816406</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:5">
       <c r="B219" s="34" t="s">
         <v>444</v>
       </c>
@@ -11471,7 +11470,7 @@
         <v>79.924636840800005</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:5">
       <c r="B220" s="34" t="s">
         <v>445</v>
       </c>
@@ -11483,7 +11482,7 @@
         <v>72.3411865234375</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:5" ht="16" thickBot="1">
       <c r="B221" s="39" t="s">
         <v>446</v>
       </c>
@@ -11515,63 +11514,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="28"/>
-    <col min="2" max="2" width="45.08984375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="28"/>
+    <col min="2" max="2" width="45.1640625" style="28" customWidth="1"/>
     <col min="3" max="3" width="12" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="28" customWidth="1"/>
     <col min="5" max="5" width="20" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="7.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="28"/>
+    <col min="6" max="6" width="21.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="28" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="J1" s="57"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="63"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59" t="s">
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="16">
+      <c r="A2" s="66"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="49" t="s">
         <v>266</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="51" t="s">
         <v>174</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" s="51" t="s">
         <v>175</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>98.141151428222656</v>
       </c>
       <c r="G4" s="1">
-        <v>97.761123657226563</v>
+        <v>97.761123657226562</v>
       </c>
       <c r="H4" s="1">
         <v>98.513618469238281</v>
@@ -11649,7 +11648,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="51" t="s">
         <v>192</v>
       </c>
@@ -11681,7 +11680,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="51" t="s">
         <v>41</v>
       </c>
@@ -11705,7 +11704,7 @@
       </c>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="52" t="s">
         <v>351</v>
       </c>
@@ -11728,7 +11727,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="46"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="52" t="s">
         <v>352</v>
       </c>
@@ -11751,7 +11750,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="51" t="s">
         <v>42</v>
       </c>
@@ -11773,7 +11772,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="51" t="s">
         <v>176</v>
       </c>
@@ -11805,7 +11804,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="52" t="s">
         <v>353</v>
       </c>
@@ -11828,7 +11827,7 @@
       <c r="I11" s="35"/>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="51" t="s">
         <v>43</v>
       </c>
@@ -11852,7 +11851,7 @@
       </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" s="51" t="s">
         <v>44</v>
       </c>
@@ -11876,7 +11875,7 @@
       </c>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" s="52" t="s">
         <v>354</v>
       </c>
@@ -11899,7 +11898,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="51" t="s">
         <v>46</v>
       </c>
@@ -11923,7 +11922,7 @@
       </c>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" s="51" t="s">
         <v>180</v>
       </c>
@@ -11940,7 +11939,7 @@
         <v>92</v>
       </c>
       <c r="F16" s="1">
-        <v>97.464187622070313</v>
+        <v>97.464187622070312</v>
       </c>
       <c r="G16" s="1">
         <v>94.948883056640625</v>
@@ -11955,7 +11954,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" s="51" t="s">
         <v>179</v>
       </c>
@@ -11972,7 +11971,7 @@
         <v>93</v>
       </c>
       <c r="F17" s="1">
-        <v>74.684463500976563</v>
+        <v>74.684463500976562</v>
       </c>
       <c r="G17" s="1">
         <v>71.948387145996094</v>
@@ -11987,7 +11986,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" s="52" t="s">
         <v>355</v>
       </c>
@@ -12010,7 +12009,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="46"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19" s="51" t="s">
         <v>181</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20" s="51" t="s">
         <v>45</v>
       </c>
@@ -12066,7 +12065,7 @@
       </c>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" s="52" t="s">
         <v>356</v>
       </c>
@@ -12089,7 +12088,7 @@
       <c r="I21" s="35"/>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22" s="51" t="s">
         <v>177</v>
       </c>
@@ -12121,7 +12120,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" s="52" t="s">
         <v>357</v>
       </c>
@@ -12144,7 +12143,7 @@
       <c r="I23" s="35"/>
       <c r="J23" s="46"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" s="52" t="s">
         <v>358</v>
       </c>
@@ -12167,7 +12166,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="46"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25" s="52" t="s">
         <v>359</v>
       </c>
@@ -12190,7 +12189,7 @@
       <c r="I25" s="35"/>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10">
       <c r="A26" s="52" t="s">
         <v>360</v>
       </c>
@@ -12213,7 +12212,7 @@
       <c r="I26" s="35"/>
       <c r="J26" s="46"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10">
       <c r="A27" s="51" t="s">
         <v>182</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10">
       <c r="A28" s="51" t="s">
         <v>81</v>
       </c>
@@ -12269,7 +12268,7 @@
       </c>
       <c r="J28" s="31"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10">
       <c r="A29" s="51" t="s">
         <v>183</v>
       </c>
@@ -12301,7 +12300,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30" s="52" t="s">
         <v>361</v>
       </c>
@@ -12324,7 +12323,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="46"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10">
       <c r="A31" s="51" t="s">
         <v>178</v>
       </c>
@@ -12356,7 +12355,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10">
       <c r="A32" s="52" t="s">
         <v>362</v>
       </c>
@@ -12379,7 +12378,7 @@
       <c r="I32" s="35"/>
       <c r="J32" s="46"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="52" t="s">
         <v>363</v>
       </c>
@@ -12402,7 +12401,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="46"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" s="52" t="s">
         <v>364</v>
       </c>
@@ -12425,7 +12424,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="46"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" s="51" t="s">
         <v>187</v>
       </c>
@@ -12457,7 +12456,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" s="51" t="s">
         <v>47</v>
       </c>
@@ -12481,7 +12480,7 @@
       </c>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" s="51" t="s">
         <v>184</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" s="52" t="s">
         <v>365</v>
       </c>
@@ -12536,7 +12535,7 @@
       <c r="I38" s="35"/>
       <c r="J38" s="46"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" s="52" t="s">
         <v>366</v>
       </c>
@@ -12559,7 +12558,7 @@
       <c r="I39" s="35"/>
       <c r="J39" s="46"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40" s="51" t="s">
         <v>185</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" s="51" t="s">
         <v>189</v>
       </c>
@@ -12623,7 +12622,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" s="51" t="s">
         <v>190</v>
       </c>
@@ -12655,7 +12654,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" s="51" t="s">
         <v>188</v>
       </c>
@@ -12687,7 +12686,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" s="51" t="s">
         <v>49</v>
       </c>
@@ -12711,7 +12710,7 @@
       </c>
       <c r="J44" s="31"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45" s="51" t="s">
         <v>191</v>
       </c>
@@ -12743,7 +12742,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" s="51" t="s">
         <v>186</v>
       </c>
@@ -12775,7 +12774,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" s="52" t="s">
         <v>367</v>
       </c>
@@ -12798,7 +12797,7 @@
       <c r="I47" s="35"/>
       <c r="J47" s="46"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" s="52" t="s">
         <v>368</v>
       </c>
@@ -12821,7 +12820,7 @@
       <c r="I48" s="35"/>
       <c r="J48" s="46"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49" s="52" t="s">
         <v>369</v>
       </c>
@@ -12844,7 +12843,7 @@
       <c r="I49" s="35"/>
       <c r="J49" s="46"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50" s="52" t="s">
         <v>370</v>
       </c>
@@ -12867,7 +12866,7 @@
       <c r="I50" s="35"/>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10">
       <c r="A51" s="52" t="s">
         <v>371</v>
       </c>
@@ -12890,7 +12889,7 @@
       <c r="I51" s="35"/>
       <c r="J51" s="46"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10">
       <c r="A52" s="52" t="s">
         <v>372</v>
       </c>
@@ -12913,7 +12912,7 @@
       <c r="I52" s="35"/>
       <c r="J52" s="46"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10">
       <c r="A53" s="51" t="s">
         <v>53</v>
       </c>
@@ -12937,7 +12936,7 @@
       </c>
       <c r="J53" s="31"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10">
       <c r="A54" s="51" t="s">
         <v>51</v>
       </c>
@@ -12961,7 +12960,7 @@
       </c>
       <c r="J54" s="31"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55" s="51" t="s">
         <v>52</v>
       </c>
@@ -12985,7 +12984,7 @@
       </c>
       <c r="J55" s="31"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56" s="52" t="s">
         <v>373</v>
       </c>
@@ -13008,7 +13007,7 @@
       <c r="I56" s="35"/>
       <c r="J56" s="46"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10">
       <c r="A57" s="52" t="s">
         <v>374</v>
       </c>
@@ -13031,7 +13030,7 @@
       <c r="I57" s="35"/>
       <c r="J57" s="46"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10">
       <c r="A58" s="52" t="s">
         <v>375</v>
       </c>
@@ -13054,7 +13053,7 @@
       <c r="I58" s="35"/>
       <c r="J58" s="46"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10">
       <c r="A59" s="51" t="s">
         <v>235</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10">
       <c r="A60" s="52" t="s">
         <v>376</v>
       </c>
@@ -13109,7 +13108,7 @@
       <c r="I60" s="35"/>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10">
       <c r="A61" s="51" t="s">
         <v>193</v>
       </c>
@@ -13141,7 +13140,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10">
       <c r="A62" s="52" t="s">
         <v>377</v>
       </c>
@@ -13164,7 +13163,7 @@
       <c r="I62" s="35"/>
       <c r="J62" s="46"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10">
       <c r="A63" s="51" t="s">
         <v>240</v>
       </c>
@@ -13196,7 +13195,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10">
       <c r="A64" s="52" t="s">
         <v>378</v>
       </c>
@@ -13219,7 +13218,7 @@
       <c r="I64" s="35"/>
       <c r="J64" s="46"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10">
       <c r="A65" s="52" t="s">
         <v>379</v>
       </c>
@@ -13242,7 +13241,7 @@
       <c r="I65" s="35"/>
       <c r="J65" s="46"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10">
       <c r="A66" s="51" t="s">
         <v>54</v>
       </c>
@@ -13266,7 +13265,7 @@
       </c>
       <c r="J66" s="31"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10">
       <c r="A67" s="51" t="s">
         <v>55</v>
       </c>
@@ -13290,7 +13289,7 @@
       </c>
       <c r="J67" s="31"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10">
       <c r="A68" s="51" t="s">
         <v>195</v>
       </c>
@@ -13322,7 +13321,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10">
       <c r="A69" s="52" t="s">
         <v>380</v>
       </c>
@@ -13345,7 +13344,7 @@
       <c r="I69" s="35"/>
       <c r="J69" s="46"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="A70" s="52" t="s">
         <v>381</v>
       </c>
@@ -13368,7 +13367,7 @@
       <c r="I70" s="35"/>
       <c r="J70" s="46"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10">
       <c r="A71" s="51" t="s">
         <v>50</v>
       </c>
@@ -13392,7 +13391,7 @@
       </c>
       <c r="J71" s="31"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10">
       <c r="A72" s="51" t="s">
         <v>196</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10">
       <c r="A73" s="51" t="s">
         <v>197</v>
       </c>
@@ -13456,7 +13455,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10">
       <c r="A74" s="52" t="s">
         <v>382</v>
       </c>
@@ -13479,7 +13478,7 @@
       <c r="I74" s="35"/>
       <c r="J74" s="46"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10">
       <c r="A75" s="52" t="s">
         <v>383</v>
       </c>
@@ -13502,7 +13501,7 @@
       <c r="I75" s="35"/>
       <c r="J75" s="46"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10">
       <c r="A76" s="52" t="s">
         <v>384</v>
       </c>
@@ -13525,7 +13524,7 @@
       <c r="I76" s="35"/>
       <c r="J76" s="46"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10">
       <c r="A77" s="52" t="s">
         <v>385</v>
       </c>
@@ -13548,7 +13547,7 @@
       <c r="I77" s="35"/>
       <c r="J77" s="46"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10">
       <c r="A78" s="52" t="s">
         <v>386</v>
       </c>
@@ -13571,7 +13570,7 @@
       <c r="I78" s="35"/>
       <c r="J78" s="46"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10">
       <c r="A79" s="52" t="s">
         <v>387</v>
       </c>
@@ -13594,7 +13593,7 @@
       <c r="I79" s="35"/>
       <c r="J79" s="46"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10">
       <c r="A80" s="51" t="s">
         <v>80</v>
       </c>
@@ -13618,7 +13617,7 @@
       </c>
       <c r="J80" s="31"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10">
       <c r="A81" s="51" t="s">
         <v>198</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10">
       <c r="A82" s="52" t="s">
         <v>388</v>
       </c>
@@ -13673,7 +13672,7 @@
       <c r="I82" s="35"/>
       <c r="J82" s="46"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10">
       <c r="A83" s="51" t="s">
         <v>59</v>
       </c>
@@ -13697,7 +13696,7 @@
       </c>
       <c r="J83" s="31"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10">
       <c r="A84" s="51" t="s">
         <v>200</v>
       </c>
@@ -13729,7 +13728,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10">
       <c r="A85" s="51" t="s">
         <v>199</v>
       </c>
@@ -13761,7 +13760,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10">
       <c r="A86" s="52" t="s">
         <v>389</v>
       </c>
@@ -13784,7 +13783,7 @@
       <c r="I86" s="35"/>
       <c r="J86" s="46"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10">
       <c r="A87" s="52" t="s">
         <v>390</v>
       </c>
@@ -13807,7 +13806,7 @@
       <c r="I87" s="35"/>
       <c r="J87" s="46"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10">
       <c r="A88" s="51" t="s">
         <v>58</v>
       </c>
@@ -13831,7 +13830,7 @@
       </c>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10">
       <c r="A89" s="52" t="s">
         <v>391</v>
       </c>
@@ -13854,7 +13853,7 @@
       <c r="I89" s="35"/>
       <c r="J89" s="46"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10">
       <c r="A90" s="51" t="s">
         <v>201</v>
       </c>
@@ -13886,7 +13885,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10">
       <c r="A91" s="52" t="s">
         <v>392</v>
       </c>
@@ -13909,7 +13908,7 @@
       <c r="I91" s="35"/>
       <c r="J91" s="46"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10">
       <c r="A92" s="51" t="s">
         <v>60</v>
       </c>
@@ -13933,7 +13932,7 @@
       </c>
       <c r="J92" s="31"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10">
       <c r="A93" s="51" t="s">
         <v>202</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>97.832077026367188</v>
       </c>
       <c r="H93" s="1">
-        <v>98.614212036132813</v>
+        <v>98.614212036132812</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>264</v>
@@ -13965,7 +13964,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10">
       <c r="A94" s="51" t="s">
         <v>203</v>
       </c>
@@ -13982,7 +13981,7 @@
         <v>92</v>
       </c>
       <c r="F94" s="1">
-        <v>99.781631469726563</v>
+        <v>99.781631469726562</v>
       </c>
       <c r="G94" s="1">
         <v>99.738990783691406</v>
@@ -13997,7 +13996,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10">
       <c r="A95" s="51" t="s">
         <v>204</v>
       </c>
@@ -14029,7 +14028,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10">
       <c r="A96" s="51" t="s">
         <v>61</v>
       </c>
@@ -14053,7 +14052,7 @@
       </c>
       <c r="J96" s="31"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10">
       <c r="A97" s="51" t="s">
         <v>206</v>
       </c>
@@ -14070,13 +14069,13 @@
         <v>92</v>
       </c>
       <c r="F97" s="1">
-        <v>96.056472778320313</v>
+        <v>96.056472778320312</v>
       </c>
       <c r="G97" s="1">
         <v>94.905158996582031</v>
       </c>
       <c r="H97" s="1">
-        <v>96.666458129882813</v>
+        <v>96.666458129882812</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>264</v>
@@ -14085,7 +14084,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10">
       <c r="A98" s="51" t="s">
         <v>205</v>
       </c>
@@ -14117,7 +14116,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10">
       <c r="A99" s="52" t="s">
         <v>393</v>
       </c>
@@ -14140,7 +14139,7 @@
       <c r="I99" s="35"/>
       <c r="J99" s="46"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10">
       <c r="A100" s="51" t="s">
         <v>209</v>
       </c>
@@ -14172,7 +14171,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10">
       <c r="A101" s="51" t="s">
         <v>207</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>95.069442749023438</v>
       </c>
       <c r="G101" s="1">
-        <v>93.305007934570313</v>
+        <v>93.305007934570312</v>
       </c>
       <c r="H101" s="1">
         <v>96.854660034179688</v>
@@ -14204,7 +14203,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10">
       <c r="A102" s="52" t="s">
         <v>394</v>
       </c>
@@ -14227,7 +14226,7 @@
       <c r="I102" s="35"/>
       <c r="J102" s="46"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10">
       <c r="A103" s="52" t="s">
         <v>395</v>
       </c>
@@ -14250,7 +14249,7 @@
       <c r="I103" s="35"/>
       <c r="J103" s="46"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10">
       <c r="A104" s="52" t="s">
         <v>396</v>
       </c>
@@ -14273,7 +14272,7 @@
       <c r="I104" s="35"/>
       <c r="J104" s="46"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10">
       <c r="A105" s="51" t="s">
         <v>64</v>
       </c>
@@ -14297,7 +14296,7 @@
       </c>
       <c r="J105" s="31"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10">
       <c r="A106" s="52" t="s">
         <v>397</v>
       </c>
@@ -14320,7 +14319,7 @@
       <c r="I106" s="35"/>
       <c r="J106" s="46"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10">
       <c r="A107" s="51" t="s">
         <v>65</v>
       </c>
@@ -14344,7 +14343,7 @@
       </c>
       <c r="J107" s="31"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10">
       <c r="A108" s="51" t="s">
         <v>211</v>
       </c>
@@ -14376,7 +14375,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10">
       <c r="A109" s="52" t="s">
         <v>398</v>
       </c>
@@ -14399,7 +14398,7 @@
       <c r="I109" s="35"/>
       <c r="J109" s="46"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10">
       <c r="A110" s="51" t="s">
         <v>218</v>
       </c>
@@ -14431,7 +14430,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10">
       <c r="A111" s="52" t="s">
         <v>399</v>
       </c>
@@ -14454,7 +14453,7 @@
       <c r="I111" s="35"/>
       <c r="J111" s="46"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10">
       <c r="A112" s="51" t="s">
         <v>213</v>
       </c>
@@ -14471,7 +14470,7 @@
         <v>93</v>
       </c>
       <c r="F112" s="1">
-        <v>35.473770141601563</v>
+        <v>35.473770141601562</v>
       </c>
       <c r="G112" s="1">
         <v>25.735160827636719</v>
@@ -14486,7 +14485,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11">
       <c r="A113" s="51" t="s">
         <v>214</v>
       </c>
@@ -14503,10 +14502,10 @@
         <v>91</v>
       </c>
       <c r="F113" s="1">
-        <v>94.503189086914063</v>
+        <v>94.503189086914062</v>
       </c>
       <c r="G113" s="1">
-        <v>95.988723754882813</v>
+        <v>95.988723754882812</v>
       </c>
       <c r="H113" s="1">
         <v>93.009971618652344</v>
@@ -14518,7 +14517,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11">
       <c r="A114" s="52" t="s">
         <v>400</v>
       </c>
@@ -14541,7 +14540,7 @@
       <c r="I114" s="35"/>
       <c r="J114" s="46"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11">
       <c r="A115" s="52" t="s">
         <v>401</v>
       </c>
@@ -14564,7 +14563,7 @@
       <c r="I115" s="35"/>
       <c r="J115" s="46"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11">
       <c r="A116" s="51" t="s">
         <v>217</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>92</v>
       </c>
       <c r="F116" s="1">
-        <v>91.325393676757813</v>
+        <v>91.325393676757812</v>
       </c>
       <c r="G116" s="1">
         <v>89.366378784179688</v>
@@ -14596,7 +14595,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11">
       <c r="A117" s="51" t="s">
         <v>212</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>95.379913330078125</v>
       </c>
       <c r="G117" s="1">
-        <v>94.608047485351563</v>
+        <v>94.608047485351562</v>
       </c>
       <c r="H117" s="1">
         <v>96.232902526855469</v>
@@ -14628,7 +14627,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11">
       <c r="A118" s="51" t="s">
         <v>56</v>
       </c>
@@ -14652,7 +14651,7 @@
       </c>
       <c r="J118" s="31"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11">
       <c r="A119" s="51" t="s">
         <v>66</v>
       </c>
@@ -14676,7 +14675,7 @@
       </c>
       <c r="J119" s="31"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11">
       <c r="A120" s="51" t="s">
         <v>216</v>
       </c>
@@ -14709,7 +14708,7 @@
       </c>
       <c r="K120" s="47"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11">
       <c r="A121" s="51" t="s">
         <v>215</v>
       </c>
@@ -14726,7 +14725,7 @@
         <v>91</v>
       </c>
       <c r="F121" s="1">
-        <v>98.847183227539063</v>
+        <v>98.847183227539062</v>
       </c>
       <c r="G121" s="1">
         <v>98.271347045898438</v>
@@ -14742,7 +14741,7 @@
       </c>
       <c r="K121" s="47"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11">
       <c r="A122" s="51" t="s">
         <v>67</v>
       </c>
@@ -14767,7 +14766,7 @@
       <c r="J122" s="31"/>
       <c r="K122" s="47"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11">
       <c r="A123" s="51" t="s">
         <v>210</v>
       </c>
@@ -14800,7 +14799,7 @@
       </c>
       <c r="K123" s="47"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11">
       <c r="A124" s="52" t="s">
         <v>402</v>
       </c>
@@ -14824,7 +14823,7 @@
       <c r="J124" s="46"/>
       <c r="K124" s="47"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11">
       <c r="A125" s="52" t="s">
         <v>403</v>
       </c>
@@ -14848,7 +14847,7 @@
       <c r="J125" s="46"/>
       <c r="K125" s="47"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11">
       <c r="A126" s="51" t="s">
         <v>219</v>
       </c>
@@ -14881,7 +14880,7 @@
       </c>
       <c r="K126" s="47"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11">
       <c r="A127" s="51" t="s">
         <v>71</v>
       </c>
@@ -14906,7 +14905,7 @@
       <c r="J127" s="31"/>
       <c r="K127" s="47"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11">
       <c r="A128" s="51" t="s">
         <v>222</v>
       </c>
@@ -14939,7 +14938,7 @@
       </c>
       <c r="K128" s="47"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11">
       <c r="A129" s="51" t="s">
         <v>69</v>
       </c>
@@ -14964,7 +14963,7 @@
       <c r="J129" s="31"/>
       <c r="K129" s="47"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11">
       <c r="A130" s="51" t="s">
         <v>72</v>
       </c>
@@ -14989,7 +14988,7 @@
       <c r="J130" s="31"/>
       <c r="K130" s="47"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11">
       <c r="A131" s="52" t="s">
         <v>404</v>
       </c>
@@ -15013,7 +15012,7 @@
       <c r="J131" s="46"/>
       <c r="K131" s="47"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11">
       <c r="A132" s="51" t="s">
         <v>220</v>
       </c>
@@ -15046,7 +15045,7 @@
       </c>
       <c r="K132" s="47"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11">
       <c r="A133" s="51" t="s">
         <v>221</v>
       </c>
@@ -15079,7 +15078,7 @@
       </c>
       <c r="K133" s="47"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11">
       <c r="A134" s="51" t="s">
         <v>68</v>
       </c>
@@ -15104,7 +15103,7 @@
       <c r="J134" s="31"/>
       <c r="K134" s="47"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11">
       <c r="A135" s="52" t="s">
         <v>422</v>
       </c>
@@ -15128,7 +15127,7 @@
       <c r="J135" s="46"/>
       <c r="K135" s="47"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11">
       <c r="A136" s="51" t="s">
         <v>70</v>
       </c>
@@ -15153,7 +15152,7 @@
       <c r="J136" s="31"/>
       <c r="K136" s="47"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11">
       <c r="A137" s="51" t="s">
         <v>223</v>
       </c>
@@ -15186,7 +15185,7 @@
       </c>
       <c r="K137" s="47"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11">
       <c r="A138" s="52" t="s">
         <v>405</v>
       </c>
@@ -15210,7 +15209,7 @@
       <c r="J138" s="46"/>
       <c r="K138" s="47"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11">
       <c r="A139" s="52" t="s">
         <v>406</v>
       </c>
@@ -15234,7 +15233,7 @@
       <c r="J139" s="46"/>
       <c r="K139" s="47"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11">
       <c r="A140" s="51" t="s">
         <v>224</v>
       </c>
@@ -15267,7 +15266,7 @@
       </c>
       <c r="K140" s="47"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11">
       <c r="A141" s="52" t="s">
         <v>407</v>
       </c>
@@ -15291,7 +15290,7 @@
       <c r="J141" s="46"/>
       <c r="K141" s="47"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11">
       <c r="A142" s="51" t="s">
         <v>227</v>
       </c>
@@ -15324,7 +15323,7 @@
       </c>
       <c r="K142" s="47"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11">
       <c r="A143" s="51" t="s">
         <v>225</v>
       </c>
@@ -15357,7 +15356,7 @@
       </c>
       <c r="K143" s="47"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11">
       <c r="A144" s="52" t="s">
         <v>408</v>
       </c>
@@ -15381,7 +15380,7 @@
       <c r="J144" s="46"/>
       <c r="K144" s="47"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11">
       <c r="A145" s="52" t="s">
         <v>409</v>
       </c>
@@ -15405,7 +15404,7 @@
       <c r="J145" s="46"/>
       <c r="K145" s="47"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11">
       <c r="A146" s="51" t="s">
         <v>226</v>
       </c>
@@ -15422,7 +15421,7 @@
         <v>91</v>
       </c>
       <c r="F146" s="1">
-        <v>96.137588500976563</v>
+        <v>96.137588500976562</v>
       </c>
       <c r="G146" s="1">
         <v>95.072517395019531</v>
@@ -15438,7 +15437,7 @@
       </c>
       <c r="K146" s="47"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11">
       <c r="A147" s="52" t="s">
         <v>410</v>
       </c>
@@ -15462,7 +15461,7 @@
       <c r="J147" s="46"/>
       <c r="K147" s="47"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11">
       <c r="A148" s="52" t="s">
         <v>411</v>
       </c>
@@ -15486,7 +15485,7 @@
       <c r="J148" s="46"/>
       <c r="K148" s="47"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11">
       <c r="A149" s="52" t="s">
         <v>412</v>
       </c>
@@ -15510,7 +15509,7 @@
       <c r="J149" s="46"/>
       <c r="K149" s="47"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11">
       <c r="A150" s="51" t="s">
         <v>229</v>
       </c>
@@ -15527,7 +15526,7 @@
         <v>91</v>
       </c>
       <c r="F150" s="1">
-        <v>98.844497680664063</v>
+        <v>98.844497680664062</v>
       </c>
       <c r="G150" s="1">
         <v>98.599769592285156</v>
@@ -15543,7 +15542,7 @@
       </c>
       <c r="K150" s="47"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11">
       <c r="A151" s="51" t="s">
         <v>230</v>
       </c>
@@ -15560,7 +15559,7 @@
         <v>91</v>
       </c>
       <c r="F151" s="1">
-        <v>99.730056762695313</v>
+        <v>99.730056762695312</v>
       </c>
       <c r="G151" s="1">
         <v>99.734107971191406</v>
@@ -15576,7 +15575,7 @@
       </c>
       <c r="K151" s="47"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11">
       <c r="A152" s="51" t="s">
         <v>231</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>93</v>
       </c>
       <c r="F152" s="1">
-        <v>73.215591430664063</v>
+        <v>73.215591430664062</v>
       </c>
       <c r="G152" s="1">
         <v>69.394538879394531</v>
@@ -15609,7 +15608,7 @@
       </c>
       <c r="K152" s="47"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11">
       <c r="A153" s="51" t="s">
         <v>62</v>
       </c>
@@ -15634,7 +15633,7 @@
       <c r="J153" s="31"/>
       <c r="K153" s="47"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11">
       <c r="A154" s="51" t="s">
         <v>63</v>
       </c>
@@ -15659,7 +15658,7 @@
       <c r="J154" s="31"/>
       <c r="K154" s="47"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11">
       <c r="A155" s="52" t="s">
         <v>413</v>
       </c>
@@ -15683,7 +15682,7 @@
       <c r="J155" s="46"/>
       <c r="K155" s="47"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11">
       <c r="A156" s="51" t="s">
         <v>250</v>
       </c>
@@ -15716,7 +15715,7 @@
       </c>
       <c r="K156" s="47"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11">
       <c r="A157" s="51" t="s">
         <v>236</v>
       </c>
@@ -15739,7 +15738,7 @@
         <v>99.901908874511719</v>
       </c>
       <c r="H157" s="1">
-        <v>99.932083129882813</v>
+        <v>99.932083129882812</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>264</v>
@@ -15749,7 +15748,7 @@
       </c>
       <c r="K157" s="47"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11">
       <c r="A158" s="51" t="s">
         <v>238</v>
       </c>
@@ -15782,7 +15781,7 @@
       </c>
       <c r="K158" s="47"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11">
       <c r="A159" s="52" t="s">
         <v>414</v>
       </c>
@@ -15806,7 +15805,7 @@
       <c r="J159" s="46"/>
       <c r="K159" s="47"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11">
       <c r="A160" s="52" t="s">
         <v>415</v>
       </c>
@@ -15830,7 +15829,7 @@
       <c r="J160" s="46"/>
       <c r="K160" s="47"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11">
       <c r="A161" s="52" t="s">
         <v>416</v>
       </c>
@@ -15854,7 +15853,7 @@
       <c r="J161" s="46"/>
       <c r="K161" s="47"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11">
       <c r="A162" s="51" t="s">
         <v>241</v>
       </c>
@@ -15877,7 +15876,7 @@
         <v>96.350196838378906</v>
       </c>
       <c r="H162" s="1">
-        <v>95.411758422851563</v>
+        <v>95.411758422851562</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>264</v>
@@ -15887,7 +15886,7 @@
       </c>
       <c r="K162" s="47"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11">
       <c r="A163" s="51" t="s">
         <v>234</v>
       </c>
@@ -15920,7 +15919,7 @@
       </c>
       <c r="K163" s="47"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11">
       <c r="A164" s="51" t="s">
         <v>233</v>
       </c>
@@ -15953,7 +15952,7 @@
       </c>
       <c r="K164" s="47"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11">
       <c r="A165" s="51" t="s">
         <v>74</v>
       </c>
@@ -15978,7 +15977,7 @@
       <c r="J165" s="31"/>
       <c r="K165" s="47"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11">
       <c r="A166" s="52" t="s">
         <v>417</v>
       </c>
@@ -16002,7 +16001,7 @@
       <c r="J166" s="46"/>
       <c r="K166" s="47"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11">
       <c r="A167" s="51" t="s">
         <v>73</v>
       </c>
@@ -16025,7 +16024,7 @@
       <c r="J167" s="46"/>
       <c r="K167" s="47"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11">
       <c r="A168" s="52" t="s">
         <v>418</v>
       </c>
@@ -16049,7 +16048,7 @@
       <c r="J168" s="46"/>
       <c r="K168" s="47"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11">
       <c r="A169" s="52" t="s">
         <v>419</v>
       </c>
@@ -16073,7 +16072,7 @@
       <c r="J169" s="46"/>
       <c r="K169" s="47"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11">
       <c r="A170" s="51" t="s">
         <v>237</v>
       </c>
@@ -16106,7 +16105,7 @@
       </c>
       <c r="K170" s="47"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11">
       <c r="A171" s="51" t="s">
         <v>194</v>
       </c>
@@ -16139,7 +16138,7 @@
       </c>
       <c r="K171" s="47"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11">
       <c r="A172" s="51" t="s">
         <v>208</v>
       </c>
@@ -16172,7 +16171,7 @@
       </c>
       <c r="K172" s="47"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11">
       <c r="A173" s="51" t="s">
         <v>228</v>
       </c>
@@ -16205,7 +16204,7 @@
       </c>
       <c r="K173" s="47"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11">
       <c r="A174" s="51" t="s">
         <v>232</v>
       </c>
@@ -16238,7 +16237,7 @@
       </c>
       <c r="K174" s="47"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11">
       <c r="A175" s="51" t="s">
         <v>239</v>
       </c>
@@ -16271,7 +16270,7 @@
       </c>
       <c r="K175" s="47"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11">
       <c r="A176" s="51" t="s">
         <v>75</v>
       </c>
@@ -16296,7 +16295,7 @@
       <c r="J176" s="31"/>
       <c r="K176" s="47"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11">
       <c r="A177" s="51" t="s">
         <v>48</v>
       </c>
@@ -16321,7 +16320,7 @@
       <c r="J177" s="31"/>
       <c r="K177" s="47"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11">
       <c r="A178" s="52" t="s">
         <v>420</v>
       </c>
@@ -16345,7 +16344,7 @@
       <c r="J178" s="46"/>
       <c r="K178" s="47"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11">
       <c r="A179" s="52" t="s">
         <v>421</v>
       </c>
@@ -16369,7 +16368,7 @@
       <c r="J179" s="46"/>
       <c r="K179" s="47"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11">
       <c r="A180" s="51" t="s">
         <v>242</v>
       </c>
@@ -16402,7 +16401,7 @@
       </c>
       <c r="K180" s="47"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11">
       <c r="A181" s="51" t="s">
         <v>243</v>
       </c>
@@ -16435,7 +16434,7 @@
       </c>
       <c r="K181" s="47"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11">
       <c r="A182" s="52" t="s">
         <v>423</v>
       </c>
@@ -16459,7 +16458,7 @@
       <c r="J182" s="46"/>
       <c r="K182" s="47"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11">
       <c r="A183" s="51" t="s">
         <v>77</v>
       </c>
@@ -16484,7 +16483,7 @@
       <c r="J183" s="31"/>
       <c r="K183" s="47"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11">
       <c r="A184" s="51" t="s">
         <v>244</v>
       </c>
@@ -16517,7 +16516,7 @@
       </c>
       <c r="K184" s="47"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11">
       <c r="A185" s="52" t="s">
         <v>424</v>
       </c>
@@ -16541,7 +16540,7 @@
       <c r="J185" s="46"/>
       <c r="K185" s="47"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11">
       <c r="A186" s="52" t="s">
         <v>425</v>
       </c>
@@ -16565,7 +16564,7 @@
       <c r="J186" s="46"/>
       <c r="K186" s="47"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11">
       <c r="A187" s="52" t="s">
         <v>426</v>
       </c>
@@ -16589,7 +16588,7 @@
       <c r="J187" s="46"/>
       <c r="K187" s="47"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11">
       <c r="A188" s="52" t="s">
         <v>427</v>
       </c>
@@ -16613,7 +16612,7 @@
       <c r="J188" s="46"/>
       <c r="K188" s="47"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11">
       <c r="A189" s="51" t="s">
         <v>76</v>
       </c>
@@ -16638,7 +16637,7 @@
       <c r="J189" s="31"/>
       <c r="K189" s="47"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11">
       <c r="A190" s="51" t="s">
         <v>78</v>
       </c>
@@ -16663,7 +16662,7 @@
       <c r="J190" s="31"/>
       <c r="K190" s="47"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11">
       <c r="A191" s="51" t="s">
         <v>245</v>
       </c>
@@ -16696,7 +16695,7 @@
       </c>
       <c r="K191" s="47"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11">
       <c r="A192" s="52" t="s">
         <v>428</v>
       </c>
@@ -16720,7 +16719,7 @@
       <c r="J192" s="46"/>
       <c r="K192" s="47"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11">
       <c r="A193" s="52" t="s">
         <v>429</v>
       </c>
@@ -16744,7 +16743,7 @@
       <c r="J193" s="46"/>
       <c r="K193" s="47"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11">
       <c r="A194" s="51" t="s">
         <v>57</v>
       </c>
@@ -16769,7 +16768,7 @@
       <c r="J194" s="31"/>
       <c r="K194" s="47"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11">
       <c r="A195" s="52" t="s">
         <v>430</v>
       </c>
@@ -16793,7 +16792,7 @@
       <c r="J195" s="46"/>
       <c r="K195" s="47"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11">
       <c r="A196" s="51" t="s">
         <v>79</v>
       </c>
@@ -16818,7 +16817,7 @@
       <c r="J196" s="31"/>
       <c r="K196" s="47"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11">
       <c r="A197" s="51" t="s">
         <v>246</v>
       </c>
@@ -16851,7 +16850,7 @@
       </c>
       <c r="K197" s="47"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11">
       <c r="A198" s="51" t="s">
         <v>247</v>
       </c>
@@ -16884,7 +16883,7 @@
       </c>
       <c r="K198" s="47"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11">
       <c r="A199" s="51" t="s">
         <v>249</v>
       </c>
@@ -16907,7 +16906,7 @@
         <v>86.706092834472656</v>
       </c>
       <c r="H199" s="1">
-        <v>88.306350708007813</v>
+        <v>88.306350708007812</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>264</v>
@@ -16917,7 +16916,7 @@
       </c>
       <c r="K199" s="47"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11">
       <c r="A200" s="52" t="s">
         <v>431</v>
       </c>
@@ -16941,7 +16940,7 @@
       <c r="J200" s="46"/>
       <c r="K200" s="47"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11">
       <c r="A201" s="51" t="s">
         <v>248</v>
       </c>
@@ -16958,7 +16957,7 @@
         <v>92</v>
       </c>
       <c r="F201" s="1">
-        <v>95.000381469726563</v>
+        <v>95.000381469726562</v>
       </c>
       <c r="G201" s="1">
         <v>93.596710205078125</v>
@@ -16974,7 +16973,7 @@
       </c>
       <c r="K201" s="47"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11">
       <c r="A202" s="52" t="s">
         <v>432</v>
       </c>
@@ -16998,7 +16997,7 @@
       <c r="J202" s="46"/>
       <c r="K202" s="47"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11">
       <c r="A203" s="51" t="s">
         <v>251</v>
       </c>
@@ -17031,7 +17030,7 @@
       </c>
       <c r="K203" s="47"/>
     </row>
-    <row r="204" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" ht="16" thickBot="1">
       <c r="A204" s="53" t="s">
         <v>433</v>
       </c>
@@ -17055,16 +17054,16 @@
       <c r="J204" s="48"/>
       <c r="K204" s="47"/>
     </row>
-    <row r="208" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B209" s="54" t="s">
-        <v>492</v>
-      </c>
-      <c r="C209" s="55"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="55"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" ht="16" thickBot="1"/>
+    <row r="209" spans="2:5">
+      <c r="B209" s="57" t="s">
+        <v>491</v>
+      </c>
+      <c r="C209" s="58"/>
+      <c r="D209" s="58"/>
+      <c r="E209" s="58"/>
+    </row>
+    <row r="210" spans="2:5">
       <c r="B210" s="34" t="s">
         <v>434</v>
       </c>
@@ -17072,11 +17071,11 @@
         <v>84</v>
       </c>
       <c r="D210" s="33"/>
-      <c r="E210" s="65">
+      <c r="E210" s="55">
         <v>95.786293029785156</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:5">
       <c r="B211" s="34" t="s">
         <v>435</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:5">
       <c r="B212" s="34" t="s">
         <v>437</v>
       </c>
@@ -17096,11 +17095,11 @@
       <c r="D212" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="E212" s="65">
+      <c r="E212" s="55">
         <v>99.039031982421875</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:5">
       <c r="B213" s="34" t="s">
         <v>438</v>
       </c>
@@ -17112,7 +17111,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:5">
       <c r="B214" s="34" t="s">
         <v>439</v>
       </c>
@@ -17120,11 +17119,11 @@
         <v>83</v>
       </c>
       <c r="D214" s="33"/>
-      <c r="E214" s="65">
+      <c r="E214" s="55">
         <v>94.303688049316406</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:5">
       <c r="B215" s="34" t="s">
         <v>440</v>
       </c>
@@ -17132,11 +17131,11 @@
         <v>253</v>
       </c>
       <c r="D215" s="33"/>
-      <c r="E215" s="65">
+      <c r="E215" s="55">
         <v>79.285728454589844</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:5">
       <c r="B216" s="34" t="s">
         <v>441</v>
       </c>
@@ -17148,7 +17147,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:5">
       <c r="B217" s="34" t="s">
         <v>442</v>
       </c>
@@ -17156,11 +17155,11 @@
         <v>252</v>
       </c>
       <c r="D217" s="33"/>
-      <c r="E217" s="65">
+      <c r="E217" s="55">
         <v>72.951446533203125</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:5">
       <c r="B218" s="34" t="s">
         <v>443</v>
       </c>
@@ -17168,11 +17167,11 @@
         <v>86</v>
       </c>
       <c r="D218" s="33"/>
-      <c r="E218" s="65">
+      <c r="E218" s="55">
         <v>65.486656188964844</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:5">
       <c r="B219" s="34" t="s">
         <v>444</v>
       </c>
@@ -17180,11 +17179,11 @@
       <c r="D219" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E219" s="65">
-        <v>69.610671997070313</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E219" s="55">
+        <v>69.610671997070312</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5">
       <c r="B220" s="34" t="s">
         <v>445</v>
       </c>
@@ -17192,17 +17191,17 @@
       <c r="D220" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="E220" s="65">
+      <c r="E220" s="55">
         <v>60.822200775146484</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:5" ht="16" thickBot="1">
       <c r="B221" s="39" t="s">
         <v>446</v>
       </c>
       <c r="C221" s="38"/>
       <c r="D221" s="38"/>
-      <c r="E221" s="66">
+      <c r="E221" s="56">
         <v>86.467529296875</v>
       </c>
     </row>
